--- a/testdocs/formula1-x1.xlsx
+++ b/testdocs/formula1-x1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khanhhua/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khanhhua/go/src/github.com/khanhhua/formula1/testdocs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718E598D-A991-474C-ABFF-48DFC2419762}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FDC5CB-95EC-B942-BF6B-D782EAA6B9FE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="3840" windowWidth="27200" windowHeight="14900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -443,7 +443,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
